--- a/ZoningAtlas/raw_data/zoning_needs_to_join/Windsor_WoodstockTown_features.xlsx
+++ b/ZoningAtlas/raw_data/zoning_needs_to_join/Windsor_WoodstockTown_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/zoning_needs_to_join/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259584C7-0D50-844C-B227-5A3E13E5D9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B078326E-38FA-BC41-A673-0B8E1EB429CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="175">
   <si>
     <t>County</t>
   </si>
@@ -364,6 +364,39 @@
     <t>Lily Rapuano</t>
   </si>
   <si>
+    <t>Forest Reserve (FR)</t>
+  </si>
+  <si>
+    <t>Residential Five Acre (R-5)</t>
+  </si>
+  <si>
+    <t>Residential Three Acre (R-3)</t>
+  </si>
+  <si>
+    <t>Residential One Acre (R-1)</t>
+  </si>
+  <si>
+    <t>Residential Low Density (RLD)</t>
+  </si>
+  <si>
+    <t>Residential Medium Density (RMD)</t>
+  </si>
+  <si>
+    <t>Residential High Density (RHD)</t>
+  </si>
+  <si>
+    <t>Residential/Office (R/O)</t>
+  </si>
+  <si>
+    <t>Hamlet Commercial (HC)</t>
+  </si>
+  <si>
+    <t>Commercial/Light Industrial (C/LI)</t>
+  </si>
+  <si>
+    <t>Light Commercial/Light Industrial (LC/LI)</t>
+  </si>
+  <si>
     <t>Windsor</t>
   </si>
   <si>
@@ -406,6 +439,21 @@
     <t>I</t>
   </si>
   <si>
+    <t>Conservation Overlay (CO)</t>
+  </si>
+  <si>
+    <t>Design Review Overlay (DRO)</t>
+  </si>
+  <si>
+    <t>Flood Hazard Overlay (FHO)</t>
+  </si>
+  <si>
+    <t>Scenic Ridgeline Overlay (SRO)</t>
+  </si>
+  <si>
+    <t>Woodstock Aquaduct Source Protection Area Overlay (APO)</t>
+  </si>
+  <si>
     <t>80 from state route; 60 from town road</t>
   </si>
   <si>
@@ -430,6 +478,9 @@
     <t>15000 square feet/acre</t>
   </si>
   <si>
+    <t>Community (COM)</t>
+  </si>
+  <si>
     <t>COM</t>
   </si>
   <si>
@@ -481,7 +532,7 @@
     <t>Residential/Office</t>
   </si>
   <si>
-    <t>Hamlet Commercial</t>
+    <t>Hamlet/Commercial</t>
   </si>
   <si>
     <t>Commercial/Light Industrial</t>
@@ -490,10 +541,16 @@
     <t>Light Commercial/Light Industrial</t>
   </si>
   <si>
+    <t>Business Service/Light Industrial</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
     <t>Community</t>
   </si>
   <si>
-    <t>Conservation Overlay</t>
+    <t>Conservation</t>
   </si>
   <si>
     <t>Design Review Overlay</t>
@@ -505,13 +562,7 @@
     <t>Scenic Ridgeline Overlay</t>
   </si>
   <si>
-    <t>Woodstock Aquaduct Source Protection Area Overlay</t>
-  </si>
-  <si>
-    <t>Inn</t>
-  </si>
-  <si>
-    <t>Business Service/Light Industrial</t>
+    <t>Woodstock Aqueduct Protection Overlay</t>
   </si>
 </sst>
 </file>
@@ -576,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -585,6 +636,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2437,11 +2489,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:AM144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113:Z113"/>
+      <selection pane="bottomRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2475,100 +2527,100 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>109</v>
+      <c r="B1" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
-        <v>112</v>
+      <c r="H1" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
-        <v>113</v>
+      <c r="J1" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L1" t="s">
-        <v>114</v>
+      <c r="L1" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N1" t="s">
-        <v>115</v>
+      <c r="N1" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P1" t="s">
-        <v>116</v>
+      <c r="P1" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R1" t="s">
-        <v>117</v>
+      <c r="R1" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T1" t="s">
-        <v>118</v>
+      <c r="T1" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="V1" t="s">
-        <v>119</v>
+      <c r="V1" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="W1" s="3"/>
-      <c r="X1" t="s">
-        <v>120</v>
+      <c r="X1" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="Y1" s="3"/>
-      <c r="Z1" t="s">
-        <v>121</v>
+      <c r="Z1" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="AA1" s="3"/>
-      <c r="AB1" t="s">
-        <v>130</v>
+      <c r="AB1" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="AC1" s="3"/>
-      <c r="AD1" t="s">
-        <v>131</v>
+      <c r="AD1" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="AE1" s="3"/>
-      <c r="AF1" t="s">
-        <v>132</v>
+      <c r="AF1" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="AG1" s="3"/>
-      <c r="AH1" t="s">
-        <v>133</v>
+      <c r="AH1" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="AI1" s="3"/>
-      <c r="AJ1" t="s">
-        <v>134</v>
+      <c r="AJ1" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="AK1" s="3"/>
-      <c r="AL1" t="s">
-        <v>135</v>
+      <c r="AL1" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="AM1" s="3"/>
     </row>
@@ -2577,79 +2629,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -2739,79 +2791,79 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -3119,7 +3171,7 @@
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" t="s">
@@ -3127,11 +3179,11 @@
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" t="s">
@@ -3968,14 +4020,14 @@
       <c r="AA19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
@@ -4134,7 +4186,7 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
@@ -4152,7 +4204,7 @@
         <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
         <v>82</v>
@@ -4176,7 +4228,7 @@
         <v>84</v>
       </c>
       <c r="R22" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="S22" t="s">
         <v>82</v>
@@ -4428,19 +4480,19 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
         <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
         <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
@@ -4467,7 +4519,7 @@
         <v>81</v>
       </c>
       <c r="R25" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S25" t="s">
         <v>82</v>
@@ -4547,13 +4599,13 @@
         <v>81</v>
       </c>
       <c r="V26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="W26" t="s">
         <v>83</v>
       </c>
       <c r="X26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Y26" t="s">
         <v>83</v>
@@ -5436,7 +5488,7 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>82</v>
@@ -5454,7 +5506,7 @@
         <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K38" t="s">
         <v>82</v>
@@ -5478,7 +5530,7 @@
         <v>84</v>
       </c>
       <c r="R38" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="S38" t="s">
         <v>82</v>
@@ -5739,19 +5791,19 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
         <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
         <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I41" t="s">
         <v>82</v>
@@ -5778,7 +5830,7 @@
         <v>81</v>
       </c>
       <c r="R41" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S41" t="s">
         <v>82</v>
@@ -5861,13 +5913,13 @@
         <v>81</v>
       </c>
       <c r="V42" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="W42" t="s">
         <v>83</v>
       </c>
       <c r="X42" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Y42" t="s">
         <v>83</v>
@@ -6857,7 +6909,7 @@
         <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
         <v>82</v>
@@ -6875,7 +6927,7 @@
         <v>84</v>
       </c>
       <c r="J55" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K55" t="s">
         <v>82</v>
@@ -6899,7 +6951,7 @@
         <v>84</v>
       </c>
       <c r="R55" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="S55" t="s">
         <v>82</v>
@@ -7160,19 +7212,19 @@
         <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
         <v>82</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I58" t="s">
         <v>82</v>
@@ -7199,7 +7251,7 @@
         <v>81</v>
       </c>
       <c r="R58" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S58" t="s">
         <v>82</v>
@@ -7282,13 +7334,13 @@
         <v>81</v>
       </c>
       <c r="V59" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="W59" t="s">
         <v>83</v>
       </c>
       <c r="X59" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Y59" t="s">
         <v>83</v>
@@ -8534,7 +8586,7 @@
         <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
         <v>82</v>
@@ -8552,7 +8604,7 @@
         <v>84</v>
       </c>
       <c r="J75" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K75" t="s">
         <v>82</v>
@@ -8576,7 +8628,7 @@
         <v>84</v>
       </c>
       <c r="R75" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="S75" t="s">
         <v>82</v>
@@ -8837,19 +8889,19 @@
         <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
         <v>82</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I78" t="s">
         <v>82</v>
@@ -8876,7 +8928,7 @@
         <v>81</v>
       </c>
       <c r="R78" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S78" t="s">
         <v>82</v>
@@ -8959,13 +9011,13 @@
         <v>81</v>
       </c>
       <c r="V79" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="W79" t="s">
         <v>83</v>
       </c>
       <c r="X79" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Y79" t="s">
         <v>83</v>
@@ -10273,7 +10325,7 @@
         <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s">
         <v>82</v>
@@ -10291,7 +10343,7 @@
         <v>84</v>
       </c>
       <c r="J96" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K96" t="s">
         <v>82</v>
@@ -10315,7 +10367,7 @@
         <v>84</v>
       </c>
       <c r="R96" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="S96" t="s">
         <v>82</v>
@@ -10576,19 +10628,19 @@
         <v>84</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
         <v>82</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G99" t="s">
         <v>82</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I99" t="s">
         <v>82</v>
@@ -10615,7 +10667,7 @@
         <v>81</v>
       </c>
       <c r="R99" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S99" t="s">
         <v>82</v>
@@ -10698,13 +10750,13 @@
         <v>81</v>
       </c>
       <c r="V100" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="W100" t="s">
         <v>83</v>
       </c>
       <c r="X100" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Y100" t="s">
         <v>83</v>
@@ -11629,6 +11681,31 @@
       <c r="A113" t="s">
         <v>51</v>
       </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -13572,6 +13649,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B113:Z113"/>
+  </mergeCells>
   <conditionalFormatting sqref="B34:B35 D34:D35 F34:F37 H34:H37 J34:J37 R34:R37 V34:V37 X34:X37 Z34:Z37 L34:L49 N34:N49 P34:P49 T34:T49 B36:E37 G36:G37 I36:I37 K36:K37 S36:S37 W36:W41 Y36:Y41 M36:M49 O36:O49 Q36:Q49 U36:U49 B38:C41 B42:G49 R42:S49 Z42:Z49 V43:Y49 H45:K49">
     <cfRule type="expression" dxfId="218" priority="469">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
@@ -14759,7 +14839,7 @@
           <x14:formula1>
             <xm:f>Sheet2!B3:B4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 K8 S8 Q8 O8 M8 I8 G8 E8 U8 W8 Y8 AA8 AC8 AE8 AG8 AI8 AK8 AM8</xm:sqref>
+          <xm:sqref>C8 AM8 AK8 AI8 AG8 AE8 AC8 AA8 Y8 W8 U8 E8 G8 I8 M8 O8 Q8 S8 K8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14769,10 +14849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14780,7 +14860,7 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -14788,181 +14868,148 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="str">
-        <f>Districts!B1</f>
-        <v>FR</v>
-      </c>
-      <c r="C12" t="str">
-        <f>Districts!D1</f>
-        <v>R-5</v>
-      </c>
-      <c r="D12" t="str">
-        <f>Districts!F1</f>
-        <v>R-3</v>
-      </c>
-      <c r="E12" t="str">
-        <f>Districts!H1</f>
-        <v>R-1</v>
-      </c>
-      <c r="F12" t="str">
-        <f>Districts!J1</f>
-        <v>RLD</v>
-      </c>
-      <c r="G12" t="str">
-        <f>Districts!L1</f>
-        <v>RMD</v>
-      </c>
-      <c r="H12" t="str">
-        <f>Districts!N1</f>
-        <v>RHD</v>
-      </c>
-      <c r="I12" t="str">
-        <f>Districts!P1</f>
-        <v>R/O</v>
-      </c>
-      <c r="J12" t="str">
-        <f>Districts!R1</f>
-        <v>HC</v>
-      </c>
-      <c r="K12" t="str">
-        <f>Districts!T1</f>
-        <v>C/LI</v>
-      </c>
-      <c r="L12" t="str">
-        <f>Districts!V1</f>
-        <v>LC/LI</v>
-      </c>
-      <c r="M12" t="str">
-        <f>Districts!X1</f>
-        <v>BS/LI</v>
-      </c>
-      <c r="N12" t="str">
-        <f>Districts!Z1</f>
-        <v>I</v>
-      </c>
-      <c r="O12" t="str">
-        <f>Districts!AB1</f>
-        <v>COM</v>
-      </c>
-      <c r="P12" t="str">
-        <f>Districts!AD1</f>
-        <v>CO</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>Districts!AF1</f>
-        <v>DRO</v>
-      </c>
-      <c r="R12" t="str">
-        <f>Districts!AH1</f>
-        <v>FHO</v>
-      </c>
-      <c r="S12" t="str">
-        <f>Districts!AJ1</f>
-        <v>SRO</v>
-      </c>
-      <c r="T12" t="str">
-        <f>Districts!AL1</f>
-        <v>APO</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="6">
-        <v>42955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B13" s="7">
         <v>42955</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{5702A9EB-E4ED-CF4C-A7D5-1A8B83AF0AC2}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{BF81D9DA-7581-6A44-A4E2-695DF9D92885}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{5702A9EB-E4ED-CF4C-A7D5-1A8B83AF0AC2}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{BF81D9DA-7581-6A44-A4E2-695DF9D92885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -14972,13 +15019,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B4</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D916DA62-38BE-E84F-9734-1FA42CE0016E}">
           <x14:formula1>
             <xm:f>Sheet2!$B$14:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
